--- a/python/supporting_files/parameters.xlsx
+++ b/python/supporting_files/parameters.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben.kenney\OneDrive - Dana Incorporated\Research\SPMv2\python\supporting_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_D10109FED754235212A4882437DAC612F9B07DBA" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{F0FC54F1-F855-4EDD-A707-9CDD158CCAB0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25515" windowHeight="15600" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell info" sheetId="5" r:id="rId1"/>
@@ -83,7 +89,7 @@
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -93,12 +99,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ben Kenney</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -122,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I17" authorId="0">
+    <comment ref="I17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -146,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B25" authorId="0">
+    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -175,12 +181,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dana</author>
   </authors>
   <commentList>
-    <comment ref="B9" authorId="0">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -188,6 +194,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Dana:
 </t>
@@ -203,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -211,6 +218,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dana:</t>
         </r>
@@ -226,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B62" authorId="0">
+    <comment ref="B62" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -234,6 +242,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dana:</t>
         </r>
@@ -249,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E62" authorId="0">
+    <comment ref="E62" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -257,6 +266,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dana:</t>
         </r>
@@ -272,7 +282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B73" authorId="0">
+    <comment ref="B73" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -280,6 +290,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dana:</t>
         </r>
@@ -295,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E73" authorId="0">
+    <comment ref="E73" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -303,6 +314,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dana:</t>
         </r>
@@ -318,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B75" authorId="0">
+    <comment ref="B75" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -326,6 +338,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dana:</t>
         </r>
@@ -341,7 +354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E75" authorId="0">
+    <comment ref="E75" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -349,6 +362,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dana:</t>
         </r>
@@ -364,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B83" authorId="0">
+    <comment ref="B83" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -372,6 +386,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dana:</t>
         </r>
@@ -387,7 +402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E83" authorId="0">
+    <comment ref="E83" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -395,6 +410,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dana:</t>
         </r>
@@ -410,7 +426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B84" authorId="0">
+    <comment ref="B84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -418,6 +434,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dana:</t>
         </r>
@@ -433,7 +450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E84" authorId="0">
+    <comment ref="E84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -441,6 +458,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dana:</t>
         </r>
@@ -461,12 +479,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ben Kenney</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -491,7 +509,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -516,7 +534,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -540,7 +558,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -566,7 +584,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -591,7 +609,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -616,7 +634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1337,7 +1355,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000000000000"/>
@@ -1371,6 +1389,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1398,6 +1417,7 @@
       <sz val="16"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1410,6 +1430,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2146,6 +2167,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2470,16 +2499,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>228</v>
       </c>
@@ -2495,29 +2524,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:M59"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="27"/>
+    <col min="1" max="1" width="11.875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.375" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="27" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="27"/>
     <col min="5" max="5" width="15.5" style="27" customWidth="1"/>
-    <col min="6" max="7" width="10.83203125" style="27"/>
-    <col min="8" max="8" width="11.83203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.83203125" style="27"/>
+    <col min="6" max="7" width="10.875" style="27"/>
+    <col min="8" max="8" width="11.875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.375" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.875" style="27"/>
     <col min="12" max="12" width="15.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="27"/>
+    <col min="13" max="13" width="10.875" style="27"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="20">
+    <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="100" t="s">
         <v>0</v>
       </c>
@@ -2536,7 +2565,7 @@
       <c r="L2" s="101"/>
       <c r="M2" s="102"/>
     </row>
-    <row r="3" spans="1:13" ht="16" thickBot="1">
+    <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2562,7 +2591,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
@@ -2592,7 +2621,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>48</v>
@@ -2622,7 +2651,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16" thickBot="1">
+    <row r="6" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="15" t="s">
         <v>50</v>
@@ -2648,7 +2677,7 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>33</v>
       </c>
@@ -2686,7 +2715,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>22</v>
@@ -2710,7 +2739,7 @@
       <c r="L8" s="11"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>47</v>
@@ -2740,7 +2769,7 @@
       </c>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="16" thickBot="1">
+    <row r="10" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
       <c r="B10" s="19" t="s">
         <v>88</v>
@@ -2766,7 +2795,7 @@
       <c r="L10" s="16"/>
       <c r="M10" s="19"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>31</v>
       </c>
@@ -2800,7 +2829,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>53</v>
@@ -2830,7 +2859,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>58</v>
@@ -2860,7 +2889,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>56</v>
@@ -2886,7 +2915,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>57</v>
@@ -2912,7 +2941,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:13" ht="16" thickBot="1">
+    <row r="16" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
       <c r="B16" s="21" t="s">
         <v>55</v>
@@ -2942,7 +2971,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>32</v>
       </c>
@@ -2972,7 +3001,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="14"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>41</v>
@@ -3002,7 +3031,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>42</v>
@@ -3032,7 +3061,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>52</v>
@@ -3062,7 +3091,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>52</v>
@@ -3092,7 +3121,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>43</v>
@@ -3118,7 +3147,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>44</v>
@@ -3148,7 +3177,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="16" thickBot="1">
+    <row r="24" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
       <c r="B24" s="19" t="s">
         <v>45</v>
@@ -3174,7 +3203,7 @@
       <c r="L24" s="16"/>
       <c r="M24" s="19"/>
     </row>
-    <row r="25" spans="1:13" ht="16" thickBot="1">
+    <row r="25" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
         <v>127</v>
       </c>
@@ -3204,7 +3233,7 @@
       <c r="L25" s="103"/>
       <c r="M25" s="24"/>
     </row>
-    <row r="27" spans="1:13" ht="20">
+    <row r="27" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="100" t="s">
         <v>60</v>
       </c>
@@ -3222,7 +3251,7 @@
       <c r="L27" s="101"/>
       <c r="M27" s="102"/>
     </row>
-    <row r="28" spans="1:13" ht="16" thickBot="1">
+    <row r="28" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -3248,7 +3277,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="16" thickBot="1">
+    <row r="29" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
         <v>49</v>
       </c>
@@ -3278,7 +3307,7 @@
       <c r="L29" s="24"/>
       <c r="M29" s="24"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>31</v>
       </c>
@@ -3312,7 +3341,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>62</v>
@@ -3338,7 +3367,7 @@
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
     </row>
-    <row r="32" spans="1:13" ht="16" thickBot="1">
+    <row r="32" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21"/>
       <c r="B32" s="21" t="s">
         <v>55</v>
@@ -3368,7 +3397,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="20">
+    <row r="34" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A34" s="100" t="s">
         <v>67</v>
       </c>
@@ -3386,7 +3415,7 @@
       <c r="L34" s="101"/>
       <c r="M34" s="102"/>
     </row>
-    <row r="35" spans="1:13" ht="16" thickBot="1">
+    <row r="35" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -3412,7 +3441,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="16" thickBot="1">
+    <row r="36" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>76</v>
@@ -3442,7 +3471,7 @@
       <c r="L36" s="24"/>
       <c r="M36" s="24"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>79</v>
@@ -3451,7 +3480,7 @@
         <v>80</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="4"/>
@@ -3472,7 +3501,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>68</v>
@@ -3501,7 +3530,7 @@
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
     </row>
-    <row r="39" spans="1:13" ht="16" thickBot="1">
+    <row r="39" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>70</v>
@@ -3531,7 +3560,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>74</v>
@@ -3547,7 +3576,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>84</v>
@@ -3563,7 +3592,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>89</v>
@@ -3577,7 +3606,7 @@
       <c r="E42" s="11"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>91</v>
@@ -3593,7 +3622,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>93</v>
@@ -3609,7 +3638,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="16" thickBot="1">
+    <row r="45" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21"/>
       <c r="B45" s="21" t="s">
         <v>95</v>
@@ -3625,7 +3654,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="20">
+    <row r="47" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A47" s="28"/>
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
@@ -3633,7 +3662,7 @@
       <c r="E47" s="28"/>
       <c r="F47" s="28"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="29"/>
       <c r="B48" s="29"/>
       <c r="C48" s="29"/>
@@ -3642,7 +3671,7 @@
       <c r="F48" s="29"/>
       <c r="K48" s="31"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="29"/>
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
@@ -3650,7 +3679,7 @@
       <c r="E49" s="30"/>
       <c r="F49" s="29"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="29"/>
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
@@ -3658,7 +3687,7 @@
       <c r="E50" s="30"/>
       <c r="F50" s="29"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="29"/>
       <c r="B51" s="29"/>
       <c r="C51" s="29"/>
@@ -3666,7 +3695,7 @@
       <c r="E51" s="29"/>
       <c r="F51" s="29"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="29"/>
       <c r="B52" s="29"/>
       <c r="C52" s="29"/>
@@ -3674,7 +3703,7 @@
       <c r="E52" s="29"/>
       <c r="F52" s="29"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="29"/>
       <c r="B53" s="29"/>
       <c r="C53" s="29"/>
@@ -3682,7 +3711,7 @@
       <c r="E53" s="29"/>
       <c r="F53" s="29"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="29"/>
       <c r="B54" s="29"/>
       <c r="C54" s="29"/>
@@ -3690,7 +3719,7 @@
       <c r="E54" s="29"/>
       <c r="F54" s="29"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="29"/>
       <c r="B55" s="29"/>
       <c r="C55" s="29"/>
@@ -3698,7 +3727,7 @@
       <c r="E55" s="29"/>
       <c r="F55" s="29"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="29"/>
       <c r="B56" s="29"/>
       <c r="C56" s="29"/>
@@ -3706,7 +3735,7 @@
       <c r="E56" s="29"/>
       <c r="F56" s="29"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="29"/>
       <c r="B57" s="29"/>
       <c r="C57" s="29"/>
@@ -3714,7 +3743,7 @@
       <c r="E57" s="29"/>
       <c r="F57" s="29"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="29"/>
       <c r="B58" s="29"/>
       <c r="C58" s="29"/>
@@ -3722,7 +3751,7 @@
       <c r="E58" s="29"/>
       <c r="F58" s="29"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="29"/>
       <c r="B59" s="29"/>
       <c r="C59" s="29"/>
@@ -3748,37 +3777,37 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Lists!$B$4:$B$9</xm:f>
           </x14:formula1>
           <xm:sqref>D4 K4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Lists!$C$4:$C$5</xm:f>
           </x14:formula1>
           <xm:sqref>D50 D37</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>Lists!$F$4:$F$7</xm:f>
           </x14:formula1>
           <xm:sqref>F11:F12 F20:F21 M11:M12 M20:M21 F30 M37 M30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>Lists!$G$4:$G$7</xm:f>
           </x14:formula1>
           <xm:sqref>F16 M16 F32 M32 F40 M39</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>Lists!$H$4:$H$5</xm:f>
           </x14:formula1>
           <xm:sqref>F36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>Lists!$I$4:$I$5</xm:f>
           </x14:formula1>
@@ -3794,35 +3823,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:J111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.875" customWidth="1"/>
+    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="18.5" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" s="45" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="20">
+    <row r="4" spans="2:10" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="46" t="s">
         <v>142</v>
       </c>
@@ -3842,7 +3871,7 @@
         <v>62.493806271103288</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>145</v>
       </c>
@@ -3869,7 +3898,7 @@
         <v>100.00000000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>146</v>
       </c>
@@ -3896,7 +3925,7 @@
         <v>-2.9999999928698173E-8</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H7" t="s">
         <v>219</v>
       </c>
@@ -3908,7 +3937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>226</v>
       </c>
@@ -3922,7 +3951,7 @@
         <v>0.88000002999999993</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>147</v>
       </c>
@@ -3940,7 +3969,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>148</v>
       </c>
@@ -3958,7 +3987,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C11" s="49"/>
       <c r="H11" t="s">
         <v>225</v>
@@ -3967,7 +3996,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>149</v>
       </c>
@@ -3983,16 +4012,16 @@
         <v>8.4511702895127896E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C13" s="96"/>
       <c r="I13" s="99"/>
     </row>
-    <row r="14" spans="2:10" ht="20">
+    <row r="14" spans="2:10" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="46" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="50" t="s">
         <v>151</v>
       </c>
@@ -4003,7 +4032,7 @@
       <c r="G15" s="50"/>
       <c r="H15" s="50"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>152</v>
       </c>
@@ -4023,7 +4052,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>36</v>
       </c>
@@ -4043,7 +4072,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>25</v>
       </c>
@@ -4069,7 +4098,7 @@
         <v>0.65583160130526308</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>159</v>
       </c>
@@ -4095,7 +4124,7 @@
         <v>0.10114285714285713</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>160</v>
       </c>
@@ -4121,7 +4150,7 @@
         <v>0.12068175784090925</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>161</v>
       </c>
@@ -4135,19 +4164,19 @@
         <v>0.12234378371097065</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C22" s="55"/>
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
       <c r="H22" s="56"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C23" s="55"/>
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
       <c r="H23" s="56"/>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="50" t="s">
         <v>162</v>
       </c>
@@ -4157,7 +4186,7 @@
       <c r="F24" s="50"/>
       <c r="G24" s="50"/>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>152</v>
       </c>
@@ -4177,7 +4206,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>36</v>
       </c>
@@ -4197,7 +4226,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>163</v>
       </c>
@@ -4223,7 +4252,7 @@
         <v>0.74142857142857155</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>159</v>
       </c>
@@ -4248,7 +4277,7 @@
         <v>4.1190476190476194E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>160</v>
       </c>
@@ -4274,7 +4303,7 @@
         <v>4.9147727272727253E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>161</v>
       </c>
@@ -4289,18 +4318,18 @@
         <v>0.16823322510822503</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C31" s="55"/>
       <c r="F31" s="51"/>
       <c r="G31" s="51"/>
       <c r="H31" s="51"/>
     </row>
-    <row r="33" spans="2:8" ht="20">
+    <row r="33" spans="2:8" ht="21" x14ac:dyDescent="0.35">
       <c r="B33" s="46" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="20">
+    <row r="34" spans="2:8" ht="21" x14ac:dyDescent="0.35">
       <c r="B34" s="46"/>
       <c r="C34" t="s">
         <v>152</v>
@@ -4318,7 +4347,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>36</v>
       </c>
@@ -4332,7 +4361,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="45" t="s">
         <v>97</v>
       </c>
@@ -4352,21 +4381,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="45"/>
       <c r="F37" s="57"/>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="45"/>
       <c r="F38" s="57"/>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="45" t="s">
         <v>167</v>
       </c>
       <c r="F39" s="57"/>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="58" t="s">
         <v>168</v>
       </c>
@@ -4378,7 +4407,7 @@
       </c>
       <c r="F40" s="57"/>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="58" t="s">
         <v>147</v>
       </c>
@@ -4391,7 +4420,7 @@
       </c>
       <c r="F41" s="57"/>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="58" t="s">
         <v>170</v>
       </c>
@@ -4403,7 +4432,7 @@
       </c>
       <c r="F42" s="57"/>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="58" t="s">
         <v>171</v>
       </c>
@@ -4415,7 +4444,7 @@
       </c>
       <c r="F43" s="57"/>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="58" t="s">
         <v>172</v>
       </c>
@@ -4427,7 +4456,7 @@
       </c>
       <c r="F44" s="57"/>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="58" t="s">
         <v>173</v>
       </c>
@@ -4438,7 +4467,7 @@
       <c r="D45" s="92"/>
       <c r="F45" s="57"/>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="58" t="s">
         <v>174</v>
       </c>
@@ -4449,7 +4478,7 @@
       <c r="D46" s="92"/>
       <c r="F46" s="57"/>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="104" t="s">
         <v>175</v>
       </c>
@@ -4462,7 +4491,7 @@
       <c r="G48" s="61"/>
       <c r="H48" s="61"/>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="76" t="s">
         <v>177</v>
       </c>
@@ -4474,7 +4503,7 @@
       <c r="G49" s="62"/>
       <c r="H49" s="62"/>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="78" t="s">
         <v>168</v>
       </c>
@@ -4490,7 +4519,7 @@
       <c r="G50" s="62"/>
       <c r="H50" s="62"/>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="79" t="s">
         <v>145</v>
       </c>
@@ -4506,7 +4535,7 @@
       <c r="G51" s="62"/>
       <c r="H51" s="62"/>
     </row>
-    <row r="52" spans="2:8">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="79" t="s">
         <v>146</v>
       </c>
@@ -4522,7 +4551,7 @@
       <c r="G52" s="62"/>
       <c r="H52" s="62"/>
     </row>
-    <row r="53" spans="2:8">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="79" t="s">
         <v>180</v>
       </c>
@@ -4539,7 +4568,7 @@
       <c r="G53" s="62"/>
       <c r="H53" s="62"/>
     </row>
-    <row r="54" spans="2:8">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="80" t="s">
         <v>170</v>
       </c>
@@ -4553,7 +4582,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="55" spans="2:8">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="80" t="s">
         <v>181</v>
       </c>
@@ -4567,7 +4596,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="56" spans="2:8">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="80" t="s">
         <v>182</v>
       </c>
@@ -4581,7 +4610,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="57" spans="2:8">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="80" t="s">
         <v>173</v>
       </c>
@@ -4597,7 +4626,7 @@
         <v>5.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="58" spans="2:8">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="80" t="s">
         <v>174</v>
       </c>
@@ -4613,13 +4642,13 @@
         <v>4.5000000000000003E-5</v>
       </c>
     </row>
-    <row r="59" spans="2:8">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="80"/>
       <c r="C59" s="81"/>
       <c r="E59" s="80"/>
       <c r="F59" s="81"/>
     </row>
-    <row r="60" spans="2:8">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="76" t="s">
         <v>183</v>
       </c>
@@ -4631,7 +4660,7 @@
       <c r="G60" s="62"/>
       <c r="H60" s="62"/>
     </row>
-    <row r="61" spans="2:8">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="78" t="s">
         <v>168</v>
       </c>
@@ -4647,7 +4676,7 @@
       <c r="G61" s="62"/>
       <c r="H61" s="62"/>
     </row>
-    <row r="62" spans="2:8">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="79" t="s">
         <v>145</v>
       </c>
@@ -4665,7 +4694,7 @@
       <c r="G62" s="62"/>
       <c r="H62" s="62"/>
     </row>
-    <row r="63" spans="2:8">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="79" t="s">
         <v>146</v>
       </c>
@@ -4683,7 +4712,7 @@
       <c r="G63" s="62"/>
       <c r="H63" s="62"/>
     </row>
-    <row r="64" spans="2:8">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="80" t="s">
         <v>184</v>
       </c>
@@ -4699,7 +4728,7 @@
       <c r="G64" s="62"/>
       <c r="H64" s="62"/>
     </row>
-    <row r="65" spans="2:8">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="80" t="s">
         <v>185</v>
       </c>
@@ -4715,7 +4744,7 @@
       <c r="G65" s="62"/>
       <c r="H65" s="62"/>
     </row>
-    <row r="66" spans="2:8">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="80" t="s">
         <v>181</v>
       </c>
@@ -4731,7 +4760,7 @@
       <c r="G66" s="62"/>
       <c r="H66" s="62"/>
     </row>
-    <row r="67" spans="2:8">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="80" t="s">
         <v>182</v>
       </c>
@@ -4747,7 +4776,7 @@
       <c r="G67" s="62"/>
       <c r="H67" s="62"/>
     </row>
-    <row r="68" spans="2:8">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="80" t="s">
         <v>173</v>
       </c>
@@ -4765,7 +4794,7 @@
       <c r="G68" s="62"/>
       <c r="H68" s="62"/>
     </row>
-    <row r="69" spans="2:8">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="80" t="s">
         <v>174</v>
       </c>
@@ -4783,7 +4812,7 @@
       <c r="G69" s="62"/>
       <c r="H69" s="62"/>
     </row>
-    <row r="70" spans="2:8">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="80"/>
       <c r="C70" s="81"/>
       <c r="E70" s="80"/>
@@ -4791,7 +4820,7 @@
       <c r="G70" s="62"/>
       <c r="H70" s="62"/>
     </row>
-    <row r="71" spans="2:8">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="76" t="s">
         <v>186</v>
       </c>
@@ -4803,7 +4832,7 @@
       <c r="G71" s="62"/>
       <c r="H71" s="62"/>
     </row>
-    <row r="72" spans="2:8" ht="30">
+    <row r="72" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B72" s="78" t="s">
         <v>187</v>
       </c>
@@ -4819,7 +4848,7 @@
       <c r="G72" s="62"/>
       <c r="H72" s="62"/>
     </row>
-    <row r="73" spans="2:8">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="79" t="s">
         <v>145</v>
       </c>
@@ -4837,7 +4866,7 @@
       <c r="G73" s="62"/>
       <c r="H73" s="62"/>
     </row>
-    <row r="74" spans="2:8">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="79" t="s">
         <v>146</v>
       </c>
@@ -4855,7 +4884,7 @@
       <c r="G74" s="62"/>
       <c r="H74" s="62"/>
     </row>
-    <row r="75" spans="2:8">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="79" t="s">
         <v>180</v>
       </c>
@@ -4873,7 +4902,7 @@
       <c r="G75" s="63"/>
       <c r="H75" s="63"/>
     </row>
-    <row r="76" spans="2:8">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="80" t="s">
         <v>185</v>
       </c>
@@ -4891,7 +4920,7 @@
       <c r="G76" s="63"/>
       <c r="H76" s="63"/>
     </row>
-    <row r="77" spans="2:8">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="80" t="s">
         <v>173</v>
       </c>
@@ -4909,7 +4938,7 @@
       <c r="G77" s="63"/>
       <c r="H77" s="63"/>
     </row>
-    <row r="78" spans="2:8">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="80" t="s">
         <v>174</v>
       </c>
@@ -4927,7 +4956,7 @@
       <c r="G78" s="63"/>
       <c r="H78" s="63"/>
     </row>
-    <row r="79" spans="2:8">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="80" t="s">
         <v>68</v>
       </c>
@@ -4945,7 +4974,7 @@
       <c r="G79" s="63"/>
       <c r="H79" s="63"/>
     </row>
-    <row r="80" spans="2:8">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="80" t="s">
         <v>153</v>
       </c>
@@ -4963,7 +4992,7 @@
       <c r="G80" s="63"/>
       <c r="H80" s="63"/>
     </row>
-    <row r="81" spans="2:9">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="80"/>
       <c r="C81" s="81"/>
       <c r="E81" s="80"/>
@@ -4971,7 +5000,7 @@
       <c r="G81" s="63"/>
       <c r="H81" s="63"/>
     </row>
-    <row r="82" spans="2:9">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="84" t="s">
         <v>189</v>
       </c>
@@ -4981,7 +5010,7 @@
       </c>
       <c r="F82" s="77"/>
     </row>
-    <row r="83" spans="2:9">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="80" t="s">
         <v>190</v>
       </c>
@@ -4997,7 +5026,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="84" spans="2:9">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="80" t="s">
         <v>191</v>
       </c>
@@ -5015,7 +5044,7 @@
       <c r="G84" s="65"/>
       <c r="H84" s="65"/>
     </row>
-    <row r="85" spans="2:9">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="80" t="s">
         <v>62</v>
       </c>
@@ -5033,7 +5062,7 @@
       <c r="G85" s="51"/>
       <c r="H85" s="51"/>
     </row>
-    <row r="86" spans="2:9">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="80"/>
       <c r="C86" s="86"/>
       <c r="E86" s="80"/>
@@ -5041,7 +5070,7 @@
       <c r="G86" s="51"/>
       <c r="H86" s="51"/>
     </row>
-    <row r="87" spans="2:9">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="84" t="s">
         <v>192</v>
       </c>
@@ -5051,7 +5080,7 @@
       </c>
       <c r="F87" s="77"/>
     </row>
-    <row r="88" spans="2:9">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="79" t="s">
         <v>193</v>
       </c>
@@ -5067,7 +5096,7 @@
         <v>1.8517164822902819E-4</v>
       </c>
     </row>
-    <row r="89" spans="2:9">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="79" t="s">
         <v>194</v>
       </c>
@@ -5083,7 +5112,7 @@
         <v>0.47685800769896347</v>
       </c>
     </row>
-    <row r="90" spans="2:9">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="79" t="s">
         <v>195</v>
       </c>
@@ -5099,7 +5128,7 @@
         <v>2575.2214891405251</v>
       </c>
     </row>
-    <row r="91" spans="2:9">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="79" t="s">
         <v>196</v>
       </c>
@@ -5115,7 +5144,7 @@
         <v>583.97448169271343</v>
       </c>
     </row>
-    <row r="92" spans="2:9">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="87" t="s">
         <v>197</v>
       </c>
@@ -5131,12 +5160,12 @@
         <v>174.18749004773349</v>
       </c>
     </row>
-    <row r="95" spans="2:9">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="45" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="96" spans="2:9">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>199</v>
       </c>
@@ -5159,7 +5188,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="97" spans="2:9">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>203</v>
       </c>
@@ -5182,7 +5211,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="98" spans="2:9">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>0</v>
       </c>
@@ -5215,7 +5244,7 @@
         <v>30.858630944435109</v>
       </c>
     </row>
-    <row r="99" spans="2:9">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>59</v>
       </c>
@@ -5248,7 +5277,7 @@
         <v>174.18749004773349</v>
       </c>
     </row>
-    <row r="100" spans="2:9">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>97</v>
       </c>
@@ -5281,7 +5310,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="101" spans="2:9">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>167</v>
       </c>
@@ -5314,10 +5343,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="16" thickBot="1">
+    <row r="102" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E102" s="65"/>
     </row>
-    <row r="103" spans="2:9">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="66" t="s">
         <v>205</v>
       </c>
@@ -5328,7 +5357,7 @@
       <c r="D103" s="68"/>
       <c r="E103" s="65"/>
     </row>
-    <row r="104" spans="2:9">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="69" t="s">
         <v>55</v>
       </c>
@@ -5341,7 +5370,7 @@
       </c>
       <c r="E104" s="65"/>
     </row>
-    <row r="105" spans="2:9">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="69" t="s">
         <v>206</v>
       </c>
@@ -5353,7 +5382,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="30" customHeight="1">
+    <row r="106" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="75" t="s">
         <v>208</v>
       </c>
@@ -5365,7 +5394,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="30">
+    <row r="107" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B107" s="75" t="s">
         <v>209</v>
       </c>
@@ -5377,7 +5406,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="2:9">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="69" t="s">
         <v>210</v>
       </c>
@@ -5389,7 +5418,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="109" spans="2:9">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="69" t="s">
         <v>211</v>
       </c>
@@ -5401,7 +5430,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="30">
+    <row r="110" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B110" s="75" t="s">
         <v>212</v>
       </c>
@@ -5413,7 +5442,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="16" thickBot="1">
+    <row r="111" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B111" s="72" t="s">
         <v>213</v>
       </c>
@@ -5442,29 +5471,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="34" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="34" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="34" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="34" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" style="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="36" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="36" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="36" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.5" style="44" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="34" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="106" t="s">
         <v>111</v>
       </c>
@@ -5478,7 +5507,7 @@
       <c r="I1" s="106"/>
       <c r="J1" s="106"/>
     </row>
-    <row r="2" spans="1:10" ht="16" thickBot="1">
+    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>107</v>
       </c>
@@ -5510,7 +5539,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>101</v>
       </c>
@@ -5546,7 +5575,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
         <v>101</v>
       </c>
@@ -5582,7 +5611,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
         <v>101</v>
       </c>
@@ -5591,7 +5620,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="37">
-        <v>0.88</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D5" s="40" t="str">
         <f>VLOOKUP(A5,Lists!$D$4:$J$5,7)</f>
@@ -5618,7 +5647,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
         <v>102</v>
       </c>
@@ -5654,7 +5683,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
         <v>101</v>
       </c>
@@ -5700,13 +5729,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
           <x14:formula1>
             <xm:f>Lists!$D$4:$D$5</xm:f>
           </x14:formula1>
           <xm:sqref>K3:K7 A3:A7</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
           <x14:formula1>
             <xm:f>Lists!$E$4:$E$8</xm:f>
           </x14:formula1>
@@ -5722,16 +5751,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B3:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>24</v>
       </c>
@@ -5763,7 +5792,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -5798,7 +5827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>26</v>
       </c>
@@ -5833,7 +5862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>27</v>
       </c>
@@ -5853,7 +5882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>30</v>
       </c>
@@ -5873,7 +5902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>28</v>
       </c>
@@ -5887,7 +5916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>29</v>
       </c>
